--- a/3 - CN2/RuleBased_Results.xlsx
+++ b/3 - CN2/RuleBased_Results.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[]Study\MSc\Semester A\101. Machine Learning\05 - 05.11.20 - Μάθηση Κανόνων\exe\Project 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A79B9C-9B91-435A-AD7E-BB1F0B269B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985F7B7D-4458-4B9B-BB8F-859B08518BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet8" sheetId="8" r:id="rId1"/>
-    <sheet name="Ordered(Entropy)" sheetId="2" r:id="rId2"/>
-    <sheet name="Ordered(Laplace)" sheetId="6" r:id="rId3"/>
-    <sheet name="Unordered(Laplace)" sheetId="7" r:id="rId4"/>
+    <sheet name="Ordered(Entropy)" sheetId="2" r:id="rId1"/>
+    <sheet name="Ordered(Laplace)" sheetId="6" r:id="rId2"/>
+    <sheet name="Unordered(Laplace)" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
   <si>
     <t>Algorithm</t>
   </si>
@@ -977,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,9 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,120 +1323,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8968D0D9-23AC-48AE-BE00-69FF0A2CFE6A}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A9EBAE-F930-46B2-8554-0E2DB88084FE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -1478,16 +1364,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1513,19 +1399,19 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1548,19 +1434,19 @@
       <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1583,19 +1469,19 @@
       <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1618,19 +1504,19 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1653,19 +1539,19 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1688,19 +1574,19 @@
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1723,19 +1609,19 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1758,19 +1644,19 @@
       <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1793,19 +1679,19 @@
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1828,19 +1714,19 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1863,19 +1749,19 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1898,19 +1784,19 @@
       <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1933,19 +1819,19 @@
       <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1968,19 +1854,19 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2003,19 +1889,19 @@
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2038,19 +1924,19 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2073,19 +1959,19 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2108,19 +1994,19 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2129,7 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F12643-789E-4CE6-B3CA-0067DDFE43CF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -2149,7 +2035,7 @@
     <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="99.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="99.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2171,16 +2057,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="6" t="s">
@@ -2206,19 +2092,19 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2241,19 +2127,19 @@
       <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2276,19 +2162,19 @@
       <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2311,19 +2197,19 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2346,19 +2232,19 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2381,19 +2267,19 @@
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2416,19 +2302,19 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2451,19 +2337,19 @@
       <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2486,23 +2372,23 @@
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2521,19 +2407,19 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2556,19 +2442,19 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2591,19 +2477,19 @@
       <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2626,19 +2512,19 @@
       <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2661,19 +2547,19 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2696,19 +2582,19 @@
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2731,19 +2617,19 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2766,19 +2652,19 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2801,19 +2687,19 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2822,11 +2708,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20704B38-8209-40B6-BE76-5B852A810F6B}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -2864,16 +2750,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -2899,19 +2785,19 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2934,19 +2820,19 @@
       <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2969,23 +2855,23 @@
       <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3004,19 +2890,19 @@
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3039,19 +2925,19 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3074,19 +2960,19 @@
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3109,19 +2995,19 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3144,19 +3030,19 @@
       <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3179,19 +3065,19 @@
       <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3214,19 +3100,19 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="10" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3249,19 +3135,19 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="10" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3284,19 +3170,19 @@
       <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="10" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3319,19 +3205,19 @@
       <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3354,19 +3240,19 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3389,19 +3275,19 @@
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="10" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3424,19 +3310,19 @@
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3459,19 +3345,19 @@
       <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3494,19 +3380,19 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="10" t="s">
         <v>202</v>
       </c>
     </row>

--- a/3 - CN2/RuleBased_Results.xlsx
+++ b/3 - CN2/RuleBased_Results.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[]Study\MSc\Semester A\101. Machine Learning\05 - 05.11.20 - Μάθηση Κανόνων\exe\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[]Study\MSc\Semester A\101. Machine Learning\05 - 05.11.20 - Μάθηση Κανόνων\exe\28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985F7B7D-4458-4B9B-BB8F-859B08518BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8716EB-7AC6-4570-A085-EF222AD48ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ordered(Entropy)" sheetId="2" r:id="rId1"/>
-    <sheet name="Ordered(Laplace)" sheetId="6" r:id="rId2"/>
-    <sheet name="Unordered(Laplace)" sheetId="7" r:id="rId3"/>
+    <sheet name="CN2 - Ordered(Entropy)" sheetId="2" r:id="rId1"/>
+    <sheet name="CN2 - Ordered(Laplace)" sheetId="6" r:id="rId2"/>
+    <sheet name="CN2 - Unordered(Laplace)" sheetId="7" r:id="rId3"/>
+    <sheet name="CN2SD" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179020"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="217">
   <si>
     <t>Algorithm</t>
   </si>
@@ -861,6 +862,128 @@
     <t xml:space="preserve">IF Color intensity&gt;=3.52 AND Proline&gt;=885.0 THEN Wine=1 
 IF Alcohol&lt;=12.79 AND OD280/OD315 of diluted wines&gt;=2.06 THEN Wine=2 
 IF Flavanoids&lt;=1.58 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 THEN Wine=3 
+IF TRUE THEN Wine=2 </t>
+  </si>
+  <si>
+    <t>CN2SD</t>
+  </si>
+  <si>
+    <t>F1: 0.96186
+IF Proline&gt;=990.0 THEN Wine=1 
+IF Proline&gt;=990.0 AND Malic Acid&gt;=1.43 THEN Wine=1 
+IF Proline&gt;=990.0 AND Ash&gt;=2.1 THEN Wine=1 
+IF Ash&lt;=2.04 AND Alcalinity of ash&gt;=14.8 THEN Wine=2 
+IF Alcohol&lt;=12.2 AND Ash&gt;=2.38 THEN Wine=2 
+IF Flavanoids&lt;=0.99 AND Malic Acid&gt;=2.39 THEN Wine=3 
+IF Color intensity&lt;=3.52 AND Alcalinity of ash&gt;=20.4 THEN Wine=2 
+IF Color intensity&lt;=3.52 AND Nonflavanoid phenols&gt;=0.29 THEN Wine=2 
+IF OD280/OD315 of diluted wines&lt;=1.82 AND Malic Acid&gt;=1.67 THEN Wine=3 
+IF Proline&lt;=470.0 AND Flavanoids&gt;=1.41 THEN Wine=2 
+IF Hue&lt;=0.79 AND Color intensity&gt;=4.0 THEN Wine=3 
+IF Alcohol&lt;=12.79 AND Proanthocyanins&gt;=1.42 THEN Wine=2 
+IF Alcohol&lt;=12.79 AND Hue&gt;=0.86 THEN Wine=2 
+IF Alcohol&lt;=12.79 AND OD280/OD315 of diluted wines&gt;=2.06 THEN Wine=2 
+IF Hue&lt;=0.79 AND Color intensity&gt;=4.0 AND Malic Acid&gt;=1.29 THEN Wine=3 
+IF Proline&gt;=760.0 AND Proline&gt;=990.0 AND Alcalinity of ash&gt;=11.4 THEN Wine=1 
+IF Flavanoids&lt;=1.41 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 THEN Wine=3 
+IF Proline&gt;=735.0 AND Alcohol&gt;=13.41 AND Total phenols&gt;=2.2 THEN Wine=1 
+IF Proline&gt;=735.0 AND Flavanoids&gt;=2.19 AND Malic Acid&gt;=1.68 THEN Wine=1 
+IF Flavanoids&gt;=2.33 AND Proline&gt;=680.0 AND Color intensity&gt;=3.52 AND Magnesium&gt;=89.0 THEN Wine=1 
+IF Color intensity&lt;=3.84 AND OD280/OD315 of diluted wines&lt;=3.82 THEN Wine=2 
+IF OD280/OD315 of diluted wines&lt;=2.48 AND Alcalinity of ash&gt;=17.5 THEN Wine=3 
+IF OD280/OD315 of diluted wines&gt;=2.48 AND Color intensity&gt;=3.52 THEN Wine=1 
+IF Malic Acid&lt;=2.31 AND Hue&gt;=0.79 THEN Wine=2 
+IF Proline&lt;=680.0 THEN Wine=2 
+IF Ash&gt;=2.04 THEN Wine=3 
+IF TRUE THEN Wine=2 
+Process finished with exit code 0</t>
+  </si>
+  <si>
+    <t>0.96186</t>
+  </si>
+  <si>
+    <t>0.96427</t>
+  </si>
+  <si>
+    <t>0.96026</t>
+  </si>
+  <si>
+    <t>0.96067</t>
+  </si>
+  <si>
+    <t>0.93923</t>
+  </si>
+  <si>
+    <t>0.94420</t>
+  </si>
+  <si>
+    <t>0.93613</t>
+  </si>
+  <si>
+    <t>0.93820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Proline&gt;=760.0 AND Alcohol&gt;=13.39 THEN Wine=1 
+IF Alcohol&lt;=12.79 AND OD280/OD315 of diluted wines&gt;=2.06 THEN Wine=2 
+IF Hue&lt;=0.79 AND Color intensity&gt;=4.0 THEN Wine=3 
+IF Alcohol&lt;=12.79 AND OD280/OD315 of diluted wines&gt;=2.06 AND Malic Acid&gt;=0.89 THEN Wine=2 
+IF Proline&gt;=990.0 THEN Wine=1 
+IF Flavanoids&lt;=1.58 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 THEN Wine=3 
+IF Alcohol&lt;=12.79 AND Flavanoids&gt;=0.99 AND OD280/OD315 of diluted wines&gt;=1.59 THEN Wine=2 
+IF Proline&gt;=760.0 AND Flavanoids&gt;=2.19 AND Color intensity&gt;=3.52 THEN Wine=1 
+IF Flavanoids&lt;=1.58 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 AND Malic Acid&gt;=1.29 THEN Wine=3 
+IF Proline&lt;=760.0 AND Color intensity&lt;=3.85 AND Flavanoids&gt;=0.57 THEN Wine=2 
+IF Flavanoids&gt;=2.33 AND Proline&gt;=680.0 AND Color intensity&gt;=3.52 AND Magnesium&gt;=89.0 THEN Wine=1 
+IF Flavanoids&lt;=1.58 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 AND Ash&gt;=2.15 THEN Wine=3 
+IF Alcohol&lt;=12.79 AND Flavanoids&gt;=0.99 AND OD280/OD315 of diluted wines&gt;=1.59 AND Ash&gt;=1.75 THEN Wine=2 
+IF Total phenols&gt;=2.35 AND Proline&gt;=680.0 AND Color intensity&gt;=3.52 THEN Wine=1 
+IF Proline&lt;=760.0 AND Flavanoids&gt;=1.41 AND Hue&gt;=0.69 AND Proline&lt;=680.0 THEN Wine=2 
+IF OD280/OD315 of diluted wines&lt;=2.48 AND Ash&gt;=2.1 AND Proanthocyanins&gt;=0.55 THEN Wine=3 
+IF OD280/OD315 of diluted wines&gt;=2.48 AND Magnesium&gt;=89.0 AND Malic Acid&gt;=1.35 AND Proanthocyanins&lt;=3.28 AND Magnesium&lt;=139.0 THEN Wine=1 
+IF Malic Acid&lt;=2.31 AND Hue&gt;=0.79 THEN Wine=2 
+IF Proanthocyanins&lt;=1.57 THEN Wine=3 
+IF Hue&gt;=0.82 THEN Wine=2 
+IF Ash&gt;=2.04 THEN Wine=3 
+IF TRUE THEN Wine=2 </t>
+  </si>
+  <si>
+    <t>0.92464</t>
+  </si>
+  <si>
+    <t>0.93385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF Proline&gt;=760.0 AND Alcohol&gt;=13.39 THEN Wine=1 
+IF Proline&gt;=990.0 THEN Wine=1 
+IF Proline&gt;=760.0 AND Alcohol&gt;=13.39 AND Malic Acid&gt;=1.43 THEN Wine=1 
+IF Proline&gt;=990.0 AND Magnesium&gt;=90.0 THEN Wine=1 
+IF Flavanoids&gt;=2.33 AND Proline&gt;=735.0 AND Color intensity&gt;=3.52 THEN Wine=1 
+IF Flavanoids&gt;=2.33 AND Proline&gt;=735.0 AND Color intensity&gt;=3.52 AND Total phenols&gt;=2.35 THEN Wine=1 
+IF Flavanoids&gt;=2.33 AND Proline&gt;=735.0 AND Color intensity&gt;=3.52 AND Flavanoids&gt;=2.37 THEN Wine=1 
+IF Alcohol&gt;=12.79 AND OD280/OD315 of diluted wines&gt;=2.48 AND Magnesium&gt;=89.0 AND Color intensity&gt;=3.52 THEN Wine=1 
+IF Color intensity&lt;=3.52 AND Nonflavanoid phenols&gt;=0.29 THEN Wine=2 
+IF Color intensity&lt;=3.52 AND Nonflavanoid phenols&gt;=0.29 AND Malic Acid&gt;=0.92 THEN Wine=2 
+IF Alcohol&lt;=12.2 AND Total phenols&gt;=1.45 THEN Wine=2 
+IF Proline&lt;=470.0 AND Hue&gt;=0.69 THEN Wine=2 
+IF Color intensity&lt;=3.52 AND Nonflavanoid phenols&gt;=0.29 AND Ash&gt;=1.9 THEN Wine=2 
+IF Color intensity&lt;=3.52 AND Nonflavanoid phenols&gt;=0.29 AND Proline&gt;=312.0 THEN Wine=2 
+IF Ash&lt;=2.04 AND Alcalinity of ash&gt;=14.8 THEN Wine=2 
+IF Color intensity&lt;=3.52 AND Alcalinity of ash&gt;=20.4 THEN Wine=2 
+IF Color intensity&lt;=3.84 AND Flavanoids&lt;=2.61 AND Nonflavanoid phenols&gt;=0.29 THEN Wine=2 
+IF Alcohol&lt;=12.85 AND OD280/OD315 of diluted wines&gt;=2.23 AND Alcalinity of ash&gt;=18.0 THEN Wine=2 
+IF Magnesium&lt;=89.0 AND Flavanoids&gt;=1.25 AND Alcalinity of ash&gt;=18.0 THEN Wine=2 
+IF Alcohol&lt;=12.85 AND OD280/OD315 of diluted wines&gt;=2.23 AND Alcalinity of ash&gt;=18.0 AND Malic Acid&gt;=0.89 THEN Wine=2 
+IF Proline&lt;=760.0 AND Color intensity&lt;=3.85 AND Flavanoids&gt;=0.57 THEN Wine=2 
+IF Proline&lt;=760.0 AND Hue&gt;=0.97 THEN Wine=2 
+IF Alcohol&lt;=13.05 THEN Wine=2 
+IF Hue&lt;=0.79 AND Color intensity&gt;=4.0 THEN Wine=3 
+IF Flavanoids&lt;=0.99 AND Color intensity&gt;=3.85 THEN Wine=3 
+IF Flavanoids&lt;=0.99 AND Nonflavanoid phenols&gt;=0.29 THEN Wine=3 
+IF Hue&lt;=0.79 AND Color intensity&gt;=4.0 AND Malic Acid&gt;=1.29 THEN Wine=3 
+IF OD280/OD315 of diluted wines&lt;=2.12 AND Ash&gt;=2.37 THEN Wine=3 
+IF Flavanoids&lt;=0.99 AND Color intensity&gt;=3.85 AND Hue&gt;=0.55 THEN Wine=3 
+IF Flavanoids&lt;=1.41 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 THEN Wine=3 
+IF Flavanoids&lt;=1.41 AND Color intensity&gt;=3.85 AND Ash&gt;=2.1 AND Ash&gt;=2.15 THEN Wine=3 
 IF TRUE THEN Wine=2 </t>
   </si>
 </sst>
@@ -1326,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A9EBAE-F930-46B2-8554-0E2DB88084FE}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F12643-789E-4CE6-B3CA-0067DDFE43CF}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,7 +2836,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,4 +3522,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B00E74-846B-4F5D-A217-F7A1861E8C2A}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="149.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="350.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>